--- a/data/case1/13/Q1_1.xlsx
+++ b/data/case1/13/Q1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.052661307035378968</v>
+        <v>0.10186050314992201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999520279346</v>
+        <v>-0.0059999999472388765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.049595988666089497</v>
+        <v>-0.0039999999570348166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999303943525</v>
+        <v>-0.0079999999180273562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999678400613</v>
+        <v>-0.0029999999570771152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999712148053</v>
+        <v>-0.0019999999554816128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999084254831</v>
+        <v>-0.0099999998850148764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999075897072</v>
+        <v>-0.0099999998808000257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999718427475</v>
+        <v>-0.0019999999450477368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999729147788</v>
+        <v>-0.0019999999406365987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999650840437</v>
+        <v>-0.0029999999318883752</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999614795385</v>
+        <v>-0.0034999999265550308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.024377366331813199</v>
+        <v>-0.003499999922434327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999928236079</v>
+        <v>-0.0079999998825108776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998344024732</v>
+        <v>-0.00099999994243393786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999750606179</v>
+        <v>-0.0019999999334188168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999974677813</v>
+        <v>-0.0019999999331039575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999586273205</v>
+        <v>0.00042755312226283593</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.025437553815697012</v>
+        <v>-0.0039999999644799722</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999656252783</v>
+        <v>0.014291144432881708</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999652486906</v>
+        <v>-0.0039999999647601925</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999649529272</v>
+        <v>-0.0039999999645052853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999538554718</v>
+        <v>-0.0049999999479171109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999830842441</v>
+        <v>0.01733457757450374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999828400838</v>
+        <v>-0.019999999815699887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999668970929</v>
+        <v>-0.002499999950629217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999663126715</v>
+        <v>0.0024109378181975671</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999678885771</v>
+        <v>-0.0019999999505033728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.064656674649244295</v>
+        <v>-0.006999999904958365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999500873535</v>
+        <v>0.010935905929813305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.006999999918095412</v>
+        <v>-0.0069999999005858626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998938464785</v>
+        <v>-0.0099999998740507579</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999941346033</v>
+        <v>-0.0039999999257176455</v>
       </c>
     </row>
   </sheetData>
